--- a/data-raw/regions lookup Sep 6 2016.xlsx
+++ b/data-raw/regions lookup Sep 6 2016.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="27426"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="29005"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="660" windowWidth="28800" windowHeight="15960"/>
+    <workbookView xWindow="41020" yWindow="140" windowWidth="28800" windowHeight="15960" activeTab="11"/>
   </bookViews>
   <sheets>
     <sheet name="dt.regions.all" sheetId="1" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7653" uniqueCount="1210">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7654" uniqueCount="1211">
   <si>
     <t>ISO_code</t>
   </si>
@@ -3672,6 +3672,9 @@
   </si>
   <si>
     <t>region.code</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
   </si>
 </sst>
 </file>
@@ -3735,12 +3738,14 @@
       <b/>
       <sz val="11"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="4">
@@ -3886,6 +3891,9 @@
   </cellStyles>
   <dxfs count="2">
     <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
       <font>
         <color rgb="FF9C0006"/>
       </font>
@@ -3894,9 +3902,6 @@
           <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -3946,7 +3951,7 @@
     <tableColumn id="1" name="ISO_code"/>
     <tableColumn id="17" name="region_name.AggReg2"/>
     <tableColumn id="18" name="region_code.AggReg2"/>
-    <tableColumn id="2" name="region_code.AggReg3" dataDxfId="1">
+    <tableColumn id="2" name="region_code.AggReg3" dataDxfId="0">
       <calculatedColumnFormula>VLOOKUP(A2,ISO!$A$2:'ISO'!$D$251,2,FALSE)</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="3" name="region_code.AggReg4"/>
@@ -4236,7 +4241,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W251"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="P1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="T1" sqref="T1:T1048576"/>
     </sheetView>
   </sheetViews>
@@ -34999,8 +35004,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K251"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:B1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K6" sqref="K6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -35105,6 +35110,9 @@
       </c>
       <c r="D6" t="e">
         <v>#N/A</v>
+      </c>
+      <c r="K6" t="s">
+        <v>1210</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.2">
@@ -53352,7 +53360,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:A1048576">
-    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data-raw/regions lookup Sep 6 2016.xlsx
+++ b/data-raw/regions lookup Sep 6 2016.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="29005"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10210"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="41020" yWindow="140" windowWidth="28800" windowHeight="15960" activeTab="11"/>
+    <workbookView xWindow="38340" yWindow="-2560" windowWidth="38820" windowHeight="16000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="dt.regions.all" sheetId="1" r:id="rId1"/>
@@ -28,8 +28,9 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">dt.regions.all!$P$1:$U$159</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="10" hidden="1">FAO!$A$1:$E$195</definedName>
   </definedNames>
-  <calcPr calcId="150001" concurrentCalc="0"/>
+  <calcPr calcId="171027"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
@@ -42,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7654" uniqueCount="1211">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7656" uniqueCount="1213">
   <si>
     <t>ISO_code</t>
   </si>
@@ -3675,12 +3676,18 @@
   </si>
   <si>
     <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>note: Not all ISO codes are included here so not all UNI codes can be extracted from here</t>
+  </si>
+  <si>
+    <t>In the worksheet dt.regions.all, the additional UNI codes have been hand entered from https://en.wikipedia.org/wiki/ISO_3166-1_numeric</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
@@ -3909,52 +3916,55 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table3" displayName="Table3" ref="A1:B248" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table3" displayName="Table3" ref="A1:B248" totalsRowShown="0">
   <tableColumns count="2">
-    <tableColumn id="1" name="ISO_code"/>
-    <tableColumn id="3" name="region_code.SSP"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="ISO_code"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="region_code.SSP"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Table35" displayName="Table35" ref="A1:C286" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table35" displayName="Table35" ref="A1:C286" totalsRowShown="0">
   <tableColumns count="3">
-    <tableColumn id="1" name="ISO_code"/>
-    <tableColumn id="21" name="region_code.EAPgMENg"/>
-    <tableColumn id="22" name="region_name.EAPgMENg"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="ISO_code"/>
+    <tableColumn id="21" xr3:uid="{00000000-0010-0000-0100-000015000000}" name="region_code.EAPgMENg"/>
+    <tableColumn id="22" xr3:uid="{00000000-0010-0000-0100-000016000000}" name="region_name.EAPgMENg"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table34" displayName="Table34" ref="A1:C286" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Table34" displayName="Table34" ref="A1:C286" totalsRowShown="0">
   <tableColumns count="3">
-    <tableColumn id="1" name="region_code.IMPACT159"/>
-    <tableColumn id="19" name="region_code.EconGroup"/>
-    <tableColumn id="20" name="region_name.EconGroup"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="region_code.IMPACT159"/>
+    <tableColumn id="19" xr3:uid="{00000000-0010-0000-0200-000013000000}" name="region_code.EconGroup"/>
+    <tableColumn id="20" xr3:uid="{00000000-0010-0000-0200-000014000000}" name="region_name.EconGroup"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table33" displayName="Table33" ref="A1:E286" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF03000000}" name="Table33" displayName="Table33" ref="A1:E286" totalsRowShown="0">
   <tableColumns count="5">
-    <tableColumn id="1" name="ISO_code"/>
-    <tableColumn id="17" name="region_name.AggReg2"/>
-    <tableColumn id="18" name="region_code.AggReg2"/>
-    <tableColumn id="2" name="region_code.AggReg3" dataDxfId="0">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0300-000001000000}" name="ISO_code"/>
+    <tableColumn id="17" xr3:uid="{00000000-0010-0000-0300-000011000000}" name="region_name.AggReg2"/>
+    <tableColumn id="18" xr3:uid="{00000000-0010-0000-0300-000012000000}" name="region_code.AggReg2"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0300-000002000000}" name="region_code.AggReg3" dataDxfId="0">
       <calculatedColumnFormula>VLOOKUP(A2,ISO!$A$2:'ISO'!$D$251,2,FALSE)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" name="region_code.AggReg4"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0300-000003000000}" name="region_code.AggReg4"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -4238,11 +4248,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:W251"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="T1" sqref="T1:T1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:B1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -4389,9 +4399,8 @@
         <f>VLOOKUP(A2,ISO!$A$2:'ISO'!$D$251,4,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="M2" s="12" t="e">
-        <f>VLOOKUP(A2,FAO!$A$2:'FAO'!$E$195, 2, FALSE)</f>
-        <v>#N/A</v>
+      <c r="M2" s="12">
+        <v>533</v>
       </c>
       <c r="N2" s="12" t="e">
         <f>VLOOKUP(A2,FAO!$A$2:'FAO'!$E$195, 3, FALSE)</f>
@@ -4671,9 +4680,8 @@
         <f>VLOOKUP(A5,ISO!$A$2:'ISO'!$D$251,4,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="M5" s="12" t="e">
-        <f>VLOOKUP(A5,FAO!$A$2:'FAO'!$E$195, 2, FALSE)</f>
-        <v>#N/A</v>
+      <c r="M5" s="12">
+        <v>660</v>
       </c>
       <c r="N5" s="12" t="e">
         <f>VLOOKUP(A5,FAO!$A$2:'FAO'!$E$195, 3, FALSE)</f>
@@ -4765,9 +4773,8 @@
         <f>VLOOKUP(A6,ISO!$A$2:'ISO'!$D$251,4,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="M6" s="12" t="e">
-        <f>VLOOKUP(A6,FAO!$A$2:'FAO'!$E$195, 2, FALSE)</f>
-        <v>#N/A</v>
+      <c r="M6" s="12">
+        <v>248</v>
       </c>
       <c r="N6" s="12" t="e">
         <f>VLOOKUP(A6,FAO!$A$2:'FAO'!$E$195, 3, FALSE)</f>
@@ -5423,9 +5430,8 @@
         <f>VLOOKUP(A13,ISO!$A$2:'ISO'!$D$251,4,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="M13" s="12" t="e">
-        <f>VLOOKUP(A13,FAO!$A$2:'FAO'!$E$195, 2, FALSE)</f>
-        <v>#N/A</v>
+      <c r="M13" s="12">
+        <v>16</v>
       </c>
       <c r="N13" s="12" t="e">
         <f>VLOOKUP(A13,FAO!$A$2:'FAO'!$E$195, 3, FALSE)</f>
@@ -5517,9 +5523,8 @@
         <f>VLOOKUP(A14,ISO!$A$2:'ISO'!$D$251,4,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="M14" s="12" t="e">
-        <f>VLOOKUP(A14,FAO!$A$2:'FAO'!$E$195, 2, FALSE)</f>
-        <v>#N/A</v>
+      <c r="M14" s="12">
+        <v>10</v>
       </c>
       <c r="N14" s="12" t="e">
         <f>VLOOKUP(A14,FAO!$A$2:'FAO'!$E$195, 3, FALSE)</f>
@@ -5611,9 +5616,8 @@
         <f>VLOOKUP(A15,ISO!$A$2:'ISO'!$D$251,4,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="M15" s="12" t="e">
-        <f>VLOOKUP(A15,FAO!$A$2:'FAO'!$E$195, 2, FALSE)</f>
-        <v>#N/A</v>
+      <c r="M15" s="12">
+        <v>260</v>
       </c>
       <c r="N15" s="12" t="e">
         <f>VLOOKUP(A15,FAO!$A$2:'FAO'!$E$195, 3, FALSE)</f>
@@ -6363,9 +6367,8 @@
         <f>VLOOKUP(A23,ISO!$A$2:'ISO'!$D$251,4,FALSE)</f>
         <v>BQ</v>
       </c>
-      <c r="M23" s="12" t="e">
-        <f>VLOOKUP(A23,FAO!$A$2:'FAO'!$E$195, 2, FALSE)</f>
-        <v>#N/A</v>
+      <c r="M23" s="12">
+        <v>535</v>
       </c>
       <c r="N23" s="12" t="e">
         <f>VLOOKUP(A23,FAO!$A$2:'FAO'!$E$195, 3, FALSE)</f>
@@ -7021,9 +7024,8 @@
         <f>VLOOKUP(A30,ISO!$A$2:'ISO'!$D$251,4,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="M30" s="12" t="e">
-        <f>VLOOKUP(A30,FAO!$A$2:'FAO'!$E$195, 2, FALSE)</f>
-        <v>#N/A</v>
+      <c r="M30" s="12">
+        <v>652</v>
       </c>
       <c r="N30" s="12" t="e">
         <f>VLOOKUP(A30,FAO!$A$2:'FAO'!$E$195, 3, FALSE)</f>
@@ -7303,9 +7305,8 @@
         <f>VLOOKUP(A33,ISO!$A$2:'ISO'!$D$251,4,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="M33" s="12" t="e">
-        <f>VLOOKUP(A33,FAO!$A$2:'FAO'!$E$195, 2, FALSE)</f>
-        <v>#N/A</v>
+      <c r="M33" s="12">
+        <v>60</v>
       </c>
       <c r="N33" s="12" t="e">
         <f>VLOOKUP(A33,FAO!$A$2:'FAO'!$E$195, 3, FALSE)</f>
@@ -7867,9 +7868,8 @@
         <f>VLOOKUP(A39,ISO!$A$2:'ISO'!$D$251,4,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="M39" s="12" t="e">
-        <f>VLOOKUP(A39,FAO!$A$2:'FAO'!$E$195, 2, FALSE)</f>
-        <v>#N/A</v>
+      <c r="M39" s="12">
+        <v>74</v>
       </c>
       <c r="N39" s="12" t="e">
         <f>VLOOKUP(A39,FAO!$A$2:'FAO'!$E$195, 3, FALSE)</f>
@@ -8243,9 +8243,8 @@
         <f>VLOOKUP(A43,ISO!$A$2:'ISO'!$D$251,4,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="M43" s="12" t="e">
-        <f>VLOOKUP(A43,FAO!$A$2:'FAO'!$E$195, 2, FALSE)</f>
-        <v>#N/A</v>
+      <c r="M43" s="12">
+        <v>166</v>
       </c>
       <c r="N43" s="12" t="e">
         <f>VLOOKUP(A43,FAO!$A$2:'FAO'!$E$195, 3, FALSE)</f>
@@ -9559,9 +9558,8 @@
         <f>VLOOKUP(A57,ISO!$A$2:'ISO'!$D$251,4,FALSE)</f>
         <v>CW</v>
       </c>
-      <c r="M57" s="12" t="e">
-        <f>VLOOKUP(A57,FAO!$A$2:'FAO'!$E$195, 2, FALSE)</f>
-        <v>#N/A</v>
+      <c r="M57" s="12">
+        <v>531</v>
       </c>
       <c r="N57" s="12" t="e">
         <f>VLOOKUP(A57,FAO!$A$2:'FAO'!$E$195, 3, FALSE)</f>
@@ -9653,9 +9651,8 @@
         <f>VLOOKUP(A58,ISO!$A$2:'ISO'!$D$251,4,FALSE)</f>
         <v>CX</v>
       </c>
-      <c r="M58" s="12" t="e">
-        <f>VLOOKUP(A58,FAO!$A$2:'FAO'!$E$195, 2, FALSE)</f>
-        <v>#N/A</v>
+      <c r="M58" s="12">
+        <v>162</v>
       </c>
       <c r="N58" s="12" t="e">
         <f>VLOOKUP(A58,FAO!$A$2:'FAO'!$E$195, 3, FALSE)</f>
@@ -9747,9 +9744,8 @@
         <f>VLOOKUP(A59,ISO!$A$2:'ISO'!$D$251,4,FALSE)</f>
         <v>KY</v>
       </c>
-      <c r="M59" s="12" t="e">
-        <f>VLOOKUP(A59,FAO!$A$2:'FAO'!$E$195, 2, FALSE)</f>
-        <v>#N/A</v>
+      <c r="M59" s="12">
+        <v>136</v>
       </c>
       <c r="N59" s="12" t="e">
         <f>VLOOKUP(A59,FAO!$A$2:'FAO'!$E$195, 3, FALSE)</f>
@@ -10875,9 +10871,8 @@
         <f>VLOOKUP(A71,ISO!$A$2:'ISO'!$D$251,4,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="M71" s="12" t="e">
-        <f>VLOOKUP(A71,FAO!$A$2:'FAO'!$E$195, 2, FALSE)</f>
-        <v>#N/A</v>
+      <c r="M71" s="12">
+        <v>732</v>
       </c>
       <c r="N71" s="12" t="e">
         <f>VLOOKUP(A71,FAO!$A$2:'FAO'!$E$195, 3, FALSE)</f>
@@ -11439,9 +11434,8 @@
         <f>VLOOKUP(A77,ISO!$A$2:'ISO'!$D$251,4,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="M77" s="12" t="e">
-        <f>VLOOKUP(A77,FAO!$A$2:'FAO'!$E$195, 2, FALSE)</f>
-        <v>#N/A</v>
+      <c r="M77" s="12">
+        <v>238</v>
       </c>
       <c r="N77" s="12" t="e">
         <f>VLOOKUP(A77,FAO!$A$2:'FAO'!$E$195, 3, FALSE)</f>
@@ -11627,9 +11621,8 @@
         <f>VLOOKUP(A79,ISO!$A$2:'ISO'!$D$251,4,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="M79" s="12" t="e">
-        <f>VLOOKUP(A79,FAO!$A$2:'FAO'!$E$195, 2, FALSE)</f>
-        <v>#N/A</v>
+      <c r="M79" s="12">
+        <v>234</v>
       </c>
       <c r="N79" s="12" t="e">
         <f>VLOOKUP(A79,FAO!$A$2:'FAO'!$E$195, 3, FALSE)</f>
@@ -12097,9 +12090,8 @@
         <f>VLOOKUP(A84,ISO!$A$2:'ISO'!$D$251,4,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="M84" s="12" t="e">
-        <f>VLOOKUP(A84,FAO!$A$2:'FAO'!$E$195, 2, FALSE)</f>
-        <v>#N/A</v>
+      <c r="M84" s="12">
+        <v>831</v>
       </c>
       <c r="N84" s="12" t="e">
         <f>VLOOKUP(A84,FAO!$A$2:'FAO'!$E$195, 3, FALSE)</f>
@@ -12285,9 +12277,8 @@
         <f>VLOOKUP(A86,ISO!$A$2:'ISO'!$D$251,4,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="M86" s="12" t="e">
-        <f>VLOOKUP(A86,FAO!$A$2:'FAO'!$E$195, 2, FALSE)</f>
-        <v>#N/A</v>
+      <c r="M86" s="12">
+        <v>292</v>
       </c>
       <c r="N86" s="12" t="e">
         <f>VLOOKUP(A86,FAO!$A$2:'FAO'!$E$195, 3, FALSE)</f>
@@ -12473,9 +12464,8 @@
         <f>VLOOKUP(A88,ISO!$A$2:'ISO'!$D$251,4,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="M88" s="12" t="e">
-        <f>VLOOKUP(A88,FAO!$A$2:'FAO'!$E$195, 2, FALSE)</f>
-        <v>#N/A</v>
+      <c r="M88" s="12">
+        <v>312</v>
       </c>
       <c r="N88" s="12" t="e">
         <f>VLOOKUP(A88,FAO!$A$2:'FAO'!$E$195, 3, FALSE)</f>
@@ -13037,9 +13027,8 @@
         <f>VLOOKUP(A94,ISO!$A$2:'ISO'!$D$251,4,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="M94" s="12" t="e">
-        <f>VLOOKUP(A94,FAO!$A$2:'FAO'!$E$195, 2, FALSE)</f>
-        <v>#N/A</v>
+      <c r="M94" s="12">
+        <v>304</v>
       </c>
       <c r="N94" s="12" t="e">
         <f>VLOOKUP(A94,FAO!$A$2:'FAO'!$E$195, 3, FALSE)</f>
@@ -13225,9 +13214,8 @@
         <f>VLOOKUP(A96,ISO!$A$2:'ISO'!$D$251,4,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="M96" s="12" t="e">
-        <f>VLOOKUP(A96,FAO!$A$2:'FAO'!$E$195, 2, FALSE)</f>
-        <v>#N/A</v>
+      <c r="M96" s="12">
+        <v>254</v>
       </c>
       <c r="N96" s="12" t="e">
         <f>VLOOKUP(A96,FAO!$A$2:'FAO'!$E$195, 3, FALSE)</f>
@@ -13319,9 +13307,8 @@
         <f>VLOOKUP(A97,ISO!$A$2:'ISO'!$D$251,4,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="M97" s="12" t="e">
-        <f>VLOOKUP(A97,FAO!$A$2:'FAO'!$E$195, 2, FALSE)</f>
-        <v>#N/A</v>
+      <c r="M97" s="12">
+        <v>316</v>
       </c>
       <c r="N97" s="12" t="e">
         <f>VLOOKUP(A97,FAO!$A$2:'FAO'!$E$195, 3, FALSE)</f>
@@ -13507,9 +13494,8 @@
         <f>VLOOKUP(A99,ISO!$A$2:'ISO'!$D$251,4,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="M99" s="12" t="e">
-        <f>VLOOKUP(A99,FAO!$A$2:'FAO'!$E$195, 2, FALSE)</f>
-        <v>#N/A</v>
+      <c r="M99" s="12">
+        <v>344</v>
       </c>
       <c r="N99" s="12" t="e">
         <f>VLOOKUP(A99,FAO!$A$2:'FAO'!$E$195, 3, FALSE)</f>
@@ -13601,9 +13587,8 @@
         <f>VLOOKUP(A100,ISO!$A$2:'ISO'!$D$251,4,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="M100" s="12" t="e">
-        <f>VLOOKUP(A100,FAO!$A$2:'FAO'!$E$195, 2, FALSE)</f>
-        <v>#N/A</v>
+      <c r="M100" s="12">
+        <v>334</v>
       </c>
       <c r="N100" s="12" t="e">
         <f>VLOOKUP(A100,FAO!$A$2:'FAO'!$E$195, 3, FALSE)</f>
@@ -14165,9 +14150,8 @@
         <f>VLOOKUP(A106,ISO!$A$2:'ISO'!$D$251,4,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="M106" s="12" t="e">
-        <f>VLOOKUP(A106,FAO!$A$2:'FAO'!$E$195, 2, FALSE)</f>
-        <v>#N/A</v>
+      <c r="M106" s="12">
+        <v>833</v>
       </c>
       <c r="N106" s="12" t="e">
         <f>VLOOKUP(A106,FAO!$A$2:'FAO'!$E$195, 3, FALSE)</f>
@@ -14353,9 +14337,8 @@
         <f>VLOOKUP(A108,ISO!$A$2:'ISO'!$D$251,4,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="M108" s="12" t="e">
-        <f>VLOOKUP(A108,FAO!$A$2:'FAO'!$E$195, 2, FALSE)</f>
-        <v>#N/A</v>
+      <c r="M108" s="12">
+        <v>86</v>
       </c>
       <c r="N108" s="12" t="e">
         <f>VLOOKUP(A108,FAO!$A$2:'FAO'!$E$195, 3, FALSE)</f>
@@ -15105,9 +15088,8 @@
         <f>VLOOKUP(A116,ISO!$A$2:'ISO'!$D$251,4,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="M116" s="12" t="e">
-        <f>VLOOKUP(A116,FAO!$A$2:'FAO'!$E$195, 2, FALSE)</f>
-        <v>#N/A</v>
+      <c r="M116" s="12">
+        <v>832</v>
       </c>
       <c r="N116" s="12" t="e">
         <f>VLOOKUP(A116,FAO!$A$2:'FAO'!$E$195, 3, FALSE)</f>
@@ -16609,9 +16591,8 @@
         <f>VLOOKUP(A132,ISO!$A$2:'ISO'!$D$251,4,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="M132" s="12" t="e">
-        <f>VLOOKUP(A132,FAO!$A$2:'FAO'!$E$195, 2, FALSE)</f>
-        <v>#N/A</v>
+      <c r="M132" s="12">
+        <v>438</v>
       </c>
       <c r="N132" s="12" t="e">
         <f>VLOOKUP(A132,FAO!$A$2:'FAO'!$E$195, 3, FALSE)</f>
@@ -17173,9 +17154,8 @@
         <f>VLOOKUP(A138,ISO!$A$2:'ISO'!$D$251,4,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="M138" s="12" t="e">
-        <f>VLOOKUP(A138,FAO!$A$2:'FAO'!$E$195, 2, FALSE)</f>
-        <v>#N/A</v>
+      <c r="M138" s="12">
+        <v>446</v>
       </c>
       <c r="N138" s="12" t="e">
         <f>VLOOKUP(A138,FAO!$A$2:'FAO'!$E$195, 3, FALSE)</f>
@@ -17267,9 +17247,8 @@
         <f>VLOOKUP(A139,ISO!$A$2:'ISO'!$D$251,4,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="M139" s="12" t="e">
-        <f>VLOOKUP(A139,FAO!$A$2:'FAO'!$E$195, 2, FALSE)</f>
-        <v>#N/A</v>
+      <c r="M139" s="12">
+        <v>663</v>
       </c>
       <c r="N139" s="12" t="e">
         <f>VLOOKUP(A139,FAO!$A$2:'FAO'!$E$195, 3, FALSE)</f>
@@ -18583,9 +18562,8 @@
         <f>VLOOKUP(A153,ISO!$A$2:'ISO'!$D$251,4,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="M153" s="12" t="e">
-        <f>VLOOKUP(A153,FAO!$A$2:'FAO'!$E$195, 2, FALSE)</f>
-        <v>#N/A</v>
+      <c r="M153" s="12">
+        <v>580</v>
       </c>
       <c r="N153" s="12" t="e">
         <f>VLOOKUP(A153,FAO!$A$2:'FAO'!$E$195, 3, FALSE)</f>
@@ -18865,9 +18843,8 @@
         <f>VLOOKUP(A156,ISO!$A$2:'ISO'!$D$251,4,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="M156" s="12" t="e">
-        <f>VLOOKUP(A156,FAO!$A$2:'FAO'!$E$195, 2, FALSE)</f>
-        <v>#N/A</v>
+      <c r="M156" s="12">
+        <v>500</v>
       </c>
       <c r="N156" s="12" t="e">
         <f>VLOOKUP(A156,FAO!$A$2:'FAO'!$E$195, 3, FALSE)</f>
@@ -18959,9 +18936,8 @@
         <f>VLOOKUP(A157,ISO!$A$2:'ISO'!$D$251,4,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="M157" s="12" t="e">
-        <f>VLOOKUP(A157,FAO!$A$2:'FAO'!$E$195, 2, FALSE)</f>
-        <v>#N/A</v>
+      <c r="M157" s="12">
+        <v>474</v>
       </c>
       <c r="N157" s="12" t="e">
         <f>VLOOKUP(A157,FAO!$A$2:'FAO'!$E$195, 3, FALSE)</f>
@@ -19335,9 +19311,8 @@
         <f>VLOOKUP(A161,ISO!$A$2:'ISO'!$D$251,4,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="M161" s="12" t="e">
-        <f>VLOOKUP(A161,FAO!$A$2:'FAO'!$E$195, 2, FALSE)</f>
-        <v>#N/A</v>
+      <c r="M161" s="12">
+        <v>175</v>
       </c>
       <c r="N161" s="12" t="e">
         <f>VLOOKUP(A161,FAO!$A$2:'FAO'!$E$195, 3, FALSE)</f>
@@ -19523,9 +19498,8 @@
         <f>VLOOKUP(A163,ISO!$A$2:'ISO'!$D$251,4,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="M163" s="12" t="e">
-        <f>VLOOKUP(A163,FAO!$A$2:'FAO'!$E$195, 2, FALSE)</f>
-        <v>#N/A</v>
+      <c r="M163" s="12">
+        <v>540</v>
       </c>
       <c r="N163" s="12" t="e">
         <f>VLOOKUP(A163,FAO!$A$2:'FAO'!$E$195, 3, FALSE)</f>
@@ -19711,9 +19685,8 @@
         <f>VLOOKUP(A165,ISO!$A$2:'ISO'!$D$251,4,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="M165" s="12" t="e">
-        <f>VLOOKUP(A165,FAO!$A$2:'FAO'!$E$195, 2, FALSE)</f>
-        <v>#N/A</v>
+      <c r="M165" s="12">
+        <v>574</v>
       </c>
       <c r="N165" s="12" t="e">
         <f>VLOOKUP(A165,FAO!$A$2:'FAO'!$E$195, 3, FALSE)</f>
@@ -20839,9 +20812,8 @@
         <f>VLOOKUP(A177,ISO!$A$2:'ISO'!$D$251,4,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="M177" s="12" t="e">
-        <f>VLOOKUP(A177,FAO!$A$2:'FAO'!$E$195, 2, FALSE)</f>
-        <v>#N/A</v>
+      <c r="M177" s="12">
+        <v>612</v>
       </c>
       <c r="N177" s="12" t="e">
         <f>VLOOKUP(A177,FAO!$A$2:'FAO'!$E$195, 3, FALSE)</f>
@@ -21403,9 +21375,8 @@
         <f>VLOOKUP(A183,ISO!$A$2:'ISO'!$D$251,4,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="M183" s="12" t="e">
-        <f>VLOOKUP(A183,FAO!$A$2:'FAO'!$E$195, 2, FALSE)</f>
-        <v>#N/A</v>
+      <c r="M183" s="12">
+        <v>630</v>
       </c>
       <c r="N183" s="12" t="e">
         <f>VLOOKUP(A183,FAO!$A$2:'FAO'!$E$195, 3, FALSE)</f>
@@ -21779,9 +21750,8 @@
         <f>VLOOKUP(A187,ISO!$A$2:'ISO'!$D$251,4,FALSE)</f>
         <v>PS</v>
       </c>
-      <c r="M187" s="12" t="e">
-        <f>VLOOKUP(A187,FAO!$A$2:'FAO'!$E$195, 2, FALSE)</f>
-        <v>#N/A</v>
+      <c r="M187" s="12">
+        <v>275</v>
       </c>
       <c r="N187" s="12" t="e">
         <f>VLOOKUP(A187,FAO!$A$2:'FAO'!$E$195, 3, FALSE)</f>
@@ -21873,9 +21843,8 @@
         <f>VLOOKUP(A188,ISO!$A$2:'ISO'!$D$251,4,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="M188" s="12" t="e">
-        <f>VLOOKUP(A188,FAO!$A$2:'FAO'!$E$195, 2, FALSE)</f>
-        <v>#N/A</v>
+      <c r="M188" s="12">
+        <v>258</v>
       </c>
       <c r="N188" s="12" t="e">
         <f>VLOOKUP(A188,FAO!$A$2:'FAO'!$E$195, 3, FALSE)</f>
@@ -22061,9 +22030,8 @@
         <f>VLOOKUP(A190,ISO!$A$2:'ISO'!$D$251,4,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="M190" s="12" t="e">
-        <f>VLOOKUP(A190,FAO!$A$2:'FAO'!$E$195, 2, FALSE)</f>
-        <v>#N/A</v>
+      <c r="M190" s="12">
+        <v>638</v>
       </c>
       <c r="N190" s="12" t="e">
         <f>VLOOKUP(A190,FAO!$A$2:'FAO'!$E$195, 3, FALSE)</f>
@@ -22813,9 +22781,8 @@
         <f>VLOOKUP(A198,ISO!$A$2:'ISO'!$D$251,4,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="M198" s="12" t="e">
-        <f>VLOOKUP(A198,FAO!$A$2:'FAO'!$E$195, 2, FALSE)</f>
-        <v>#N/A</v>
+      <c r="M198" s="12">
+        <v>239</v>
       </c>
       <c r="N198" s="12" t="e">
         <f>VLOOKUP(A198,FAO!$A$2:'FAO'!$E$195, 3, FALSE)</f>
@@ -22907,9 +22874,8 @@
         <f>VLOOKUP(A199,ISO!$A$2:'ISO'!$D$251,4,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="M199" s="12" t="e">
-        <f>VLOOKUP(A199,FAO!$A$2:'FAO'!$E$195, 2, FALSE)</f>
-        <v>#N/A</v>
+      <c r="M199" s="12">
+        <v>654</v>
       </c>
       <c r="N199" s="12" t="e">
         <f>VLOOKUP(A199,FAO!$A$2:'FAO'!$E$195, 3, FALSE)</f>
@@ -23001,9 +22967,8 @@
         <f>VLOOKUP(A200,ISO!$A$2:'ISO'!$D$251,4,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="M200" s="12" t="e">
-        <f>VLOOKUP(A200,FAO!$A$2:'FAO'!$E$195, 2, FALSE)</f>
-        <v>#N/A</v>
+      <c r="M200" s="12">
+        <v>744</v>
       </c>
       <c r="N200" s="12" t="e">
         <f>VLOOKUP(A200,FAO!$A$2:'FAO'!$E$195, 3, FALSE)</f>
@@ -23565,9 +23530,8 @@
         <f>VLOOKUP(A206,ISO!$A$2:'ISO'!$D$251,4,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="M206" s="12" t="e">
-        <f>VLOOKUP(A206,FAO!$A$2:'FAO'!$E$195, 2, FALSE)</f>
-        <v>#N/A</v>
+      <c r="M206" s="12">
+        <v>666</v>
       </c>
       <c r="N206" s="12" t="e">
         <f>VLOOKUP(A206,FAO!$A$2:'FAO'!$E$195, 3, FALSE)</f>
@@ -24599,9 +24563,8 @@
         <f>VLOOKUP(A217,ISO!$A$2:'ISO'!$D$251,4,FALSE)</f>
         <v>SX</v>
       </c>
-      <c r="M217" s="12" t="e">
-        <f>VLOOKUP(A217,FAO!$A$2:'FAO'!$E$195, 2, FALSE)</f>
-        <v>#N/A</v>
+      <c r="M217" s="12">
+        <v>534</v>
       </c>
       <c r="N217" s="12" t="e">
         <f>VLOOKUP(A217,FAO!$A$2:'FAO'!$E$195, 3, FALSE)</f>
@@ -24693,9 +24656,8 @@
         <f>VLOOKUP(A218,ISO!$A$2:'ISO'!$D$251,4,FALSE)</f>
         <v>TC</v>
       </c>
-      <c r="M218" s="12" t="e">
-        <f>VLOOKUP(A218,FAO!$A$2:'FAO'!$E$195, 2, FALSE)</f>
-        <v>#N/A</v>
+      <c r="M218" s="12">
+        <v>796</v>
       </c>
       <c r="N218" s="12" t="e">
         <f>VLOOKUP(A218,FAO!$A$2:'FAO'!$E$195, 3, FALSE)</f>
@@ -25163,9 +25125,8 @@
         <f>VLOOKUP(A223,ISO!$A$2:'ISO'!$D$251,4,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="M223" s="12" t="e">
-        <f>VLOOKUP(A223,FAO!$A$2:'FAO'!$E$195, 2, FALSE)</f>
-        <v>#N/A</v>
+      <c r="M223" s="12">
+        <v>772</v>
       </c>
       <c r="N223" s="12" t="e">
         <f>VLOOKUP(A223,FAO!$A$2:'FAO'!$E$195, 3, FALSE)</f>
@@ -25915,9 +25876,8 @@
         <f>VLOOKUP(A231,ISO!$A$2:'ISO'!$D$251,4,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="M231" s="12" t="e">
-        <f>VLOOKUP(A231,FAO!$A$2:'FAO'!$E$195, 2, FALSE)</f>
-        <v>#N/A</v>
+      <c r="M231" s="12">
+        <v>158</v>
       </c>
       <c r="N231" s="12" t="e">
         <f>VLOOKUP(A231,FAO!$A$2:'FAO'!$E$195, 3, FALSE)</f>
@@ -27847,7 +27807,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:E286"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -31677,16 +31637,16 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E195"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
+  <dimension ref="A1:G195"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:E1048576"/>
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -31702,8 +31662,11 @@
       <c r="E1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G1" t="s">
+        <v>1211</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>17</v>
       </c>
@@ -31719,8 +31682,11 @@
       <c r="E2">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G2" t="s">
+        <v>1212</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>23</v>
       </c>
@@ -31737,7 +31703,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>37</v>
       </c>
@@ -31754,7 +31720,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>42</v>
       </c>
@@ -31771,7 +31737,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>49</v>
       </c>
@@ -31788,7 +31754,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>59</v>
       </c>
@@ -31805,7 +31771,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>62</v>
       </c>
@@ -31822,7 +31788,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>83</v>
       </c>
@@ -31839,7 +31805,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>87</v>
       </c>
@@ -31856,7 +31822,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>91</v>
       </c>
@@ -31873,7 +31839,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>96</v>
       </c>
@@ -31890,7 +31856,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>99</v>
       </c>
@@ -31907,7 +31873,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>103</v>
       </c>
@@ -31924,7 +31890,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>109</v>
       </c>
@@ -31941,7 +31907,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>114</v>
       </c>
@@ -34993,6 +34959,11 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:E195" xr:uid="{A058C076-775C-4F4E-8BB0-29B67444CE4B}">
+    <sortState ref="A2:E195">
+      <sortCondition ref="A1:A195"/>
+    </sortState>
+  </autoFilter>
   <sortState ref="A2:E195">
     <sortCondition ref="A2:A195"/>
   </sortState>
@@ -35001,11 +34972,11 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <dimension ref="A1:K251"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K6" sqref="K6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -38548,7 +38519,7 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
   <dimension ref="A2:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -38574,7 +38545,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:C249"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -41333,7 +41304,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:AB249"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -48625,7 +48596,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:F159"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -50583,7 +50554,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:C251"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -53367,7 +53338,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:C251"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -56151,7 +56122,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:D248"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -59944,7 +59915,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:C286"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -62602,7 +62573,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:G286"/>
   <sheetViews>
     <sheetView workbookViewId="0">
